--- a/data/case1/11/Q2_2.xlsx
+++ b/data/case1/11/Q2_2.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.23541004683567479</v>
+        <v>0.27204752559465817</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999371740387</v>
+        <v>-0.0059999999791422454</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999449467083</v>
+        <v>-0.0039999999791771046</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998993223187</v>
+        <v>-0.0079999999639177588</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.034489772294457488</v>
+        <v>-0.002999999978262835</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999352595665</v>
+        <v>-0.0019999999769648724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998554523017</v>
+        <v>-0.0099999999509989834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998544753055</v>
+        <v>-0.0099999999514430726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.001999999935112573</v>
+        <v>-0.0019999999790925038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999361175469</v>
+        <v>-0.0019999999806632474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.018319545415442562</v>
+        <v>-0.0029999999774457109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999224321066</v>
+        <v>0.048144320495899784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999304368146</v>
+        <v>-0.0034999999747542532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.038153271084497398</v>
+        <v>-0.0079999999595816718</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999995795929664</v>
+        <v>-0.00099999998229982623</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999470816654</v>
+        <v>-0.0019999999787514433</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999459727746</v>
+        <v>-0.0019999999784028333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.003999999925600406</v>
+        <v>-0.0039999999717243995</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0039999999554871657</v>
+        <v>-0.016642373846429415</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0039999999334057179</v>
+        <v>-0.0039999999846376255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999281148391</v>
+        <v>-0.0039999999844742007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.067219395025704287</v>
+        <v>-0.0039999999843525202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999931335708</v>
+        <v>-0.026193374963456861</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.01999999977489697</v>
+        <v>-0.069229998227982925</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999771632027</v>
+        <v>-0.019999999917858169</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0024999999280534979</v>
+        <v>-0.0024999999745798362</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999232817594</v>
+        <v>-0.0024999999730268563</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999088291531</v>
+        <v>-0.0019999999683886216</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998453234014</v>
+        <v>-0.0069999999474514851</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999307792873</v>
+        <v>-0.059999999771263024</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0069999998331748969</v>
+        <v>-0.0069999999436056726</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998025577241</v>
+        <v>-0.0099999999335498302</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0039999998624260513</v>
+        <v>-0.0039999999531623587</v>
       </c>
     </row>
   </sheetData>
